--- a/Skills.xlsx
+++ b/Skills.xlsx
@@ -20,3003 +20,3006 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1196">
+  <si>
+    <t xml:space="preserve">Skill Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iTunes Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Design Paradigm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy and Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActiveRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acunetix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Coronary Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Pain Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad Campaigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADamSoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapting to Changing Priorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration and Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe Fireworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe FrameMaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe FreeHand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe Illustrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe InDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe Photoshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolescent Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Features of Carbonado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile Development Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile Project Methodology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgileJ StructureViews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AhnLab Site Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlaSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm Updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-Source Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative Dispute Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALV Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amateur Photography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon SQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD Am29000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMQP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaerobic Microbiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Multimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analytical Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analytical Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzing Trends in Business Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Applications Based on UI/UX Requirements and Mockups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal and Stem Cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnyDoc Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache Mina SSHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Store Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AppEngine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Graphics Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Motion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application and Server Monitoring Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied to Discrete Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquatic Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbortext Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardor3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Diecimila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino UNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArgoUML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arranging Angel Funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arts Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASC-THCLSO11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Cuisine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP.NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASRemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessing Client/End User Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Write Downs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athletic Footwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention to Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audience Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authenticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoCAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autodesk Inventor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoLISP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automotive Industry Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awk Programming Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backjumping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bancware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavior Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief Propagation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bell Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi-Directional RNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biochip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitvise SSH Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BizTalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-Box Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blogging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOPSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budgeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk Endocytosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burp Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Intelligent Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butchery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-TPAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cakewalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaign Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity Management Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog Merchandising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBP-IEEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA - PegaSystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceramic Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CES Edupack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chipscope Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic Rhinitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciphers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circumscription Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Packet Tracer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CisionPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClickDummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Based Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Based Visualizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Hosting Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Maintenance Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Management Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Scalability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Systems Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLR Profiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoa Pods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoa Touch Frameworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Coverage Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Management and Promotion Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaboration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command Line Utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compatibility Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitive Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compiler Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concert Photography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consensus decision-making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructing Predictive Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Audits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Management Systems (CMS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Managment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextual Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conveying Technical Information to Non-Technical People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CopSSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corel Draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corel Word Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CouchDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Test Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo Parametric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Care Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crop Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSMA/CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSMA/CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cultivating Relationships with Internal and External Stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWP-ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY8C5xxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cython</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DaDaBik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Design System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Oriented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Science Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Source Queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Visualization Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Warehouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Wrangling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Capacity Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Monitoring &amp; Performance Tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dbx Debugger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDoS Mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging Data Output Irregularities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defaunation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defining Data Access Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defining the Specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deindexing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delegating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Anesthesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department Budgeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Automation Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment of Cloud Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail Oriented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Lifecycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of Triggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dielectric Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Imaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directing Traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DirSync Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disaster Mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discourse Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Phase-Type Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance Vector Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversity Recruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividend Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing Consensus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropmysite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamics NAV Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eager Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy CD Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse TPTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-Investing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDWinXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejector Refrigeration Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ElephantDrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emerging Trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encryption Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End User Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyMech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engagement Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteral Feeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise-Level Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepreneurial Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrepreneurship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Data Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Geology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPMLive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQATEC Profiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERP Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESpeak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate Scope of Project and Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical Hacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eukaryotic Initiation Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Business Intelligence Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating New Analytical Methodologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolutionary Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabrication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook Ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook Insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilitating Meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facility management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FactSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FedEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FeedBlitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeder Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMA Matters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileMaker Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Files-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite-Difference Time-Domain Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flickr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folkewall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow-on Offerings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forensic Anthropology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortrabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional Viewpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fund Flow Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Futures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallery Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Games, Entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD Graphics Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Silencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generating Primary Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generating Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generative Topographic Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic Counseling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic Imprinting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLIMMERHMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Label Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlowCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNU M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNU Toolchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Grammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google BigQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Play Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Visualization API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granular Configuration Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphic Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gulp.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gypsum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair Stylist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ham Passwords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammond Organ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Sizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCNP-CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare Consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare Transaction base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEC-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilbert System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homebuilding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HootSuite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORNETDRIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitals, Clinics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosting Virtualization Platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP StorageWorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR Coordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffyuv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying Problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMAGE cDNA Clones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMS DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase Engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry Trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infographics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatica PowerCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injectable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink Cartridges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance Advisory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Real Estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpreting Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverse Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS Applications Based on UI/UX Requirements and Mockups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS Platform Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS SDK Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT Operating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPv4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO Procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO/TS 16949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterative Viterbi Decoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IwGame Engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Coaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juvederm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JZBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keen Attention to Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keen Planner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimball Methodology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreata Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour Laws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAN/WAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDesk management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lattice C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layouting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leading Cross-Functional Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leading Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libpolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licensed Master Electrician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life/work Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeSize Video Conferencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link State Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux Userland File System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINX (IPC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquid Handling Robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiquidPlanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LisaProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literary Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Event Producer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Writer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livestock Husbandary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load Runner 7.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTE Physical Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTSpice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphoid Organs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macintosh Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madaline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magento Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Gift Solicitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making Deposits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallet Software Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management of Suppliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Database Instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Full Application Stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Relationships </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manpower Utilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASE-NSSysSup07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mastercam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCLIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCITP(GP 10.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentoring New Hires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentum Planet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta Databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta Descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta Titles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microeconomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Integration Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Intermediate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Outlook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft PowerPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Software Updater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Yammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrating Existing Workloads into Cloud Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiniGLX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining Social Media Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mod jk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModelRight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modernization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular Genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor Cloud Infrastructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring Data Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring Public Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monkeyrunner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONOCLdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivating Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moulds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPC-MLQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS SQL Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSP Advanced Practitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia Bandwidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiservice Media Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multitasking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivariable Calculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Criticism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Journalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySAP CRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL Workbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namespace Nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Epigenomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nearshore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negotiating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netsniff-ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network enhancements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Data Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NeXpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI Multisim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nielsen Nitro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIH Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node.js Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nokia IPSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-infringement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novell Netmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuitka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obfuscation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympic Lifting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Source Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Source Technology Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening Hotels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenOffice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenSMTPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization Recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle Data Mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral and Written Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization Performance Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaaS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacemaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Inserts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid Search Campaign Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panchakarma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Converting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent-Teacher Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay Per Click (PPC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payroll Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEGylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Branding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmaceutical Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhotoModeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photoshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicTar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinterest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pioneer Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piping Isometrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PitchEngine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant Layout Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma Cutting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLC M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pneumonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podcast Submissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podcasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political Participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polypropylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poseidon for UML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POVs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Boot Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictive Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Biliary Cirrhosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prioritizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Solving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Scheduler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producing Data Visualizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production Budgeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Ethics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Negligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profitability Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Initiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management Methodologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Purchasing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Timelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProRealTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providing Guidance to IT Professionals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychological Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychosocial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT Modeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Class Mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyxplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q.SIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Assurance Professionals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Auditing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Control Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantitative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuickBooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAC Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rackspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphael.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Estate Financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover My Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reddit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remediation Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporting Tool Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportingOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representing Data Graphically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescue Diving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researching Solutions to User Problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory Quotient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsive Site Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESTful APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results Oriented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Osmosis Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolving Lines of Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhetoric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosomal Binding Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISC Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA Editing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNAstructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robot Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotics Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOT Statistical Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuBot II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby on Rails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rural Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-Lang Programming Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaaS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safety Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Brochures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salesforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwiches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP Business Solutions Toolset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP CRM 7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP EHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP EP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP EWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP FSCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sar (Unix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS Macros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS/C C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandinavian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaefer Dichotomy Theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme - Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scholarly Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scratch Golfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripting Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search &amp; Rescue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Engine Marketing (SEM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Engine Optimization (SEO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Engine Optimization Campaigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Engines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium IDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Motivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sell Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sellerdeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semantria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO Assessments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO Audits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO Best Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential Erlang Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential Pattern Mining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaft Alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shareplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Scripting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortage Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sieve Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silk Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silverstripe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimGear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similarity Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimplyMeasured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Acquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Audits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six Apart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six Sigma Initiatives</t>
+  </si>
   <si>
     <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iTunes Connect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mobile Design Paradigm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract Factory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accuracy and Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisition management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActiveRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acunetix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute Coronary Syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute Pain Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad Campaigns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADamSoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapting to Changing Priorities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration and Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe Fireworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe FrameMaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe FreeHand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe Illustrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe InDesign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adobe Photoshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolescent Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Features of Carbonado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdWords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile Development Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile Project Methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AgileJ StructureViews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AhnLab Site Guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlaSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aleph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm Updates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithmic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All-Source Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative Dispute Resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALV Reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amateur Photography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon SQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD Am29000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMQP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaerobic Microbiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Multimeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse-it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analytical Thinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analytical Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzing Trends in Business Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android Applications Based on UI/UX Requirements and Mockups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal and Stem Cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnyDoc Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Mina SSHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App Store Functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AppEngine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Graphics Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application and Server Monitoring Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applied to Discrete Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquatic Therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arabic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbortext Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ardor3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino Diecimila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino UNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArgoUML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arranging Angel Funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arts Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASC-THCLSO11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Cuisine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASRemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assessing Client/End User Needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Write Downs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athletic Footwear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attention to Detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audience Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authenticity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoCAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autodesk Inventor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoLISP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated Deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automated Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automotive Industry Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awk Programming Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BABOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backjumping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backup Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badboy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bancware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behavior Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief Propagation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bell Desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bi-Directional RNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biochip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitvise SSH Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BizTalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black-Box Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blogging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOPSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budgeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulk Endocytosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burp Suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Intelligent Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butchery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C Suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-TPAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cakewalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campaign Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity Management Strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Credits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Advance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalog Merchandising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBP-IEEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCA - PegaSystems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceramic Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CES Edupack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chipscope Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronic Rhinitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciphers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circumscription Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco Packet Tracer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CisionPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClickDummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Based Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Based Visualizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Hosting Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Maintenance Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Management Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Scalability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Systems Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLR Profiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocoa Pods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocoa Touch Frameworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Coverage Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Management and Promotion Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codeship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Calls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaboration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command Line Utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compatibility Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competitive Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compiler Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compiling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concert Photography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consensus decision-making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constructing Predictive Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Audits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Management Systems (CMS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Managment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contextual Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous Deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuous Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conveying Technical Information to Non-Technical People</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convolutional Neural Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CopSSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corel Draw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corel Word Perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CouchDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Test Strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating Algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creativity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creo Parametric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Care Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Thinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crop Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSMA/CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSMA/CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cultivating Relationships with Internal and External Stakeholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CWP-ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CY8C5xxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cython</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DaDaBik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Design System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Dictionary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Oriented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Science Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Source Queries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Structures and Algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Visualization Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Warehouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Wrangling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Capacity Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Monitoring &amp; Performance Tuning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dbx Debugger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDoS Mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dealer Operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging Data Output Irregularities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision Making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defaunation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defining Data Access Methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defining the Specification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deindexing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delegating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dental Anesthesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department Budgeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment Automation Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment of Cloud Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design and Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop Application Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop Publishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detail Oriented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Lifecycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development of Triggers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DevOps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnostics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dielectric Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Imaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directing Traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DirSync Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disaster Mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discourse Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discrete Phase-Type Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance Vector Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversity Recruitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividend Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documenting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drawing Consensus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropmysite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamics NAV Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eager Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy CD Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse TPTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eco-efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eco-Investing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDWinXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejector Refrigeration Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ElephantDrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emerging Trends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encryption Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End User Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyMech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engagement Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enteral Feeding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise Application Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise-Level Reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrepreneurial Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrepreneurship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Data Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Geology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPMLive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQATEC Profiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERP Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escalations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESpeak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimate Scope of Project and Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethical Hacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eukaryotic Initiation Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Politics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluating Business Intelligence Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluating New Analytical Methodologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolutionary Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabrication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook Ads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook Insights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilitating Meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FactSet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FedEx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FeedBlitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feeder Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMA Matters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Commander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FileMaker Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Files-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial Sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finite-Difference Time-Domain Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flickr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folkewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow-on Offerings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forensic Anthropology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fortrabbit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front End Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional Viewpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fund Flow Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Futures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galaxkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallery Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Artificial Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Games, Entertainment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD Graphics Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene Silencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generating Primary Keys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generating Revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generative Topographic Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genomic Counseling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genomic Imprinting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLIMMERHMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Label Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlowCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNU M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNU Toolchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good Grammar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google BigQuery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Play Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Trends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Visualization API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gradle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grammar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grant management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granular Configuration Automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphic Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gulp.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gypsum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hadoop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hair Stylist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ham Passwords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hammond Organ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware Sizing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCNP-CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare Consulting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healthcare Transaction base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEC-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help Desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilbert System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Warranty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homebuilding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HootSuite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HORNETDRIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitals, Clinics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hosting Virtualization Platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP StorageWorks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR Coordination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffyuv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifying Problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMAGE cDNA Clones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Editing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMS DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase Engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry Trends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infographics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatica PowerCenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injectable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink Cartridges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Installation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance Advisory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrated Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Real Estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpreting Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverse Dynamics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS Applications Based on UI/UX Requirements and Mockups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS Platform Expert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS SDK Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT Operating System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPSec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPv4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO Procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO/TS 16949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative Viterbi Decoding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IwGame Engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Coaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juvederm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JZBot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keen Attention to Detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keen Planner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword Generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword Ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword Reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimball Methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreata Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KYC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labour Laws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAN/WAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDesk management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laser beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lattice C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layouting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leading Cross-Functional Teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leading Teams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libpolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licensed Master Electrician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life/work Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeSize Video Conferencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Algebra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link State Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux Userland File System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINX (IPC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liquid Handling Robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LiquidPlanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LisaProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literary Theory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Event Producer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live Writer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livestock Husbandary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load Runner 7.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Thinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTE Physical Layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTSpice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymphoid Organs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAC OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning Techniques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macintosh Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MacProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madaline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magento Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mailers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major Gift Solicitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making Deposits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mallet Software Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management of Suppliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managing Database Instances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managing Full Application Stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managing Relationships </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managing Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manpower Utilization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASE-NSSysSup07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mastercam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathematica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matlab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McCLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCITP(GP 10.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medical Practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentoring New Hires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mentum Planet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta Databases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta Descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta Titles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microeconomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Integration Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Outlook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft PIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft PowerPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Software Updater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Visual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Windows administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Yammer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Migrating Existing Workloads into Cloud Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiniGLX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining Social Media Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mod jk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeling Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeling Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ModelRight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modernization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular Genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor Cloud Infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring Data Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring Public Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monkeyrunner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONOCLdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motivating Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motivation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MoU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moulds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPC-MLQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS SQL Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSP Advanced Practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multimedia Bandwidth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiservice Media Gateway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multitasking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multivariable Calculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music Criticism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music Journalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySAP CRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL Workbench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namespace Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nautilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBI Epigenomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nearshore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negotiating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netsniff-ng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network enhancements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Data Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NeXpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI Multisim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nielsen Nitro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIH Shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node.js Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nodejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nokia IPSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-infringement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novell Netmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuitka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerical Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obfuscation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBPM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olympic Lifting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OneOps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Source Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Source Technology Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opening Hotels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenOffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenSMTPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operational</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operational Execution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ophthalmics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimization Recommendations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle Data Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral and Written Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organization Performance Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizational</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaaS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacemaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package Inserts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PADS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid Search Campaign Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panchakarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper Converting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent-Teacher Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passive House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pay Per Click (PPC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payroll Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCB Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEGylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Accident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Branding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmaceutical Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photo Editing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhotoModeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photoshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicTar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinterest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pioneer Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piping Isometrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PitchEngine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant Layout Preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasma Cutting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plasmas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLC M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podcast Submissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podcasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political Participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polypropylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poseidon for UML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POVs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Boot Authentication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predictive Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Biliary Cirrhosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primer Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prioritizing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem Solving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process Scheduler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Producing Data Visualizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production Budgeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Negligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profitability Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programming for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Initiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Management Methodologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Purchasing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Timelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProRealTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providing Guidance to IT Professionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychological Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychosocial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT Modeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python Class Mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyxplot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q.SIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality Assurance Professionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality Auditing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality Control Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantitative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuickBooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAC Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rackspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raphael.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Estate Financing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recover My Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reddit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationship Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remediation Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting Tool Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportingOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Representing Data Graphically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rescue Diving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researching Solutions to User Problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiratory Quotient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsive Site Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESTful APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results Oriented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Osmosis Plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revolving Lines of Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhetoric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ribosomal Binding Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIPv1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIPv2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RISC Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA Editing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNAstructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robotics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robotics Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROOT Statistical Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Routing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RuBot II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby on Rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S-Lang Programming Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaaS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safety Culture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Brochures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salesforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwiches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP Business Solutions Toolset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP CRM 7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP EHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP EP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP EWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP FSCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sar (Unix)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS Macros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS/C C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scandinavian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaefer Dichotomy Theorem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scheme - Strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scholarly Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scratch Golfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scripting Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search &amp; Rescue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Engine Marketing (SEM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Engine Optimization (SEO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Engine Optimization Campaigns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Engines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium IDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self Motivated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sell Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sellerdeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semantria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Assessments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Audits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Best Practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequential Erlang Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequential Pattern Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaft Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shareplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Scripting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortage Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieve Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silk Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silverstripe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimGear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Similarity Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimplyMeasured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sintering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sirius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Acquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Audits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six Apart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six Sigma Initiatives</t>
   </si>
   <si>
     <t xml:space="preserve">Slang</t>
@@ -3836,8 +3839,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,1047 +9120,1047 @@
     </row>
     <row r="1056" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="3" t="s">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1143" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1145" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1148" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1154" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1156" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1159" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="5" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1178" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1183" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="5" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="5" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1202" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1211" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1213" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="5" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
